--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1343.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1343.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.121663934366014</v>
+        <v>1.171343088150024</v>
       </c>
       <c r="B1">
-        <v>2.607612265009395</v>
+        <v>2.593072891235352</v>
       </c>
       <c r="C1">
-        <v>4.42499103275782</v>
+        <v>9.455362319946289</v>
       </c>
       <c r="D1">
-        <v>2.502244613082798</v>
+        <v>2.100996971130371</v>
       </c>
       <c r="E1">
-        <v>1.186623498702955</v>
+        <v>1.228919267654419</v>
       </c>
     </row>
   </sheetData>
